--- a/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.98839382456782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11.09127470063134</v>
+        <v>11.09127470063136</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1792075912608498</v>
@@ -649,7 +649,7 @@
         <v>0.177635787687312</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1882693411118804</v>
+        <v>0.1882693411118808</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.319891906899771</v>
+        <v>9.065523766358673</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.985706546849093</v>
+        <v>7.032410534230811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.2433964012282</v>
+        <v>9.386609536908146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.939487909658554</v>
+        <v>6.26647452935606</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1179580794698352</v>
+        <v>0.1274813937895272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08802826328838777</v>
+        <v>0.08912123162552142</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1225983890085395</v>
+        <v>0.1250313841879788</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.09377728363101685</v>
+        <v>0.09892773629766542</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.90225928523532</v>
+        <v>15.84462607396645</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.54697018259956</v>
+        <v>13.57351305092743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.0122428680573</v>
+        <v>16.75433330292095</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.05050658705978</v>
+        <v>15.72626367102055</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2413283164235665</v>
+        <v>0.239599632293665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1811845120984993</v>
+        <v>0.1819132542214286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2418856310423928</v>
+        <v>0.2413155351892419</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2913662528157231</v>
+        <v>0.2844194243779647</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.096386927682222</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.227191052471485</v>
+        <v>4.227191052471463</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3811723402406372</v>
@@ -749,7 +749,7 @@
         <v>0.1902573926184245</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1146478634571292</v>
+        <v>0.1146478634571285</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11.00881185075298</v>
+        <v>11.18390441182275</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.948622509535584</v>
+        <v>8.745651163597799</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.762655632894282</v>
+        <v>6.246594184186232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.06548163607594</v>
+        <v>1.221337500004875</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2737735510306328</v>
+        <v>0.2807289459023383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1834644596484798</v>
+        <v>0.1792299661552674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.116681457419068</v>
+        <v>0.1257805832596063</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0274686836197579</v>
+        <v>0.03170106207929532</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.05773447066561</v>
+        <v>18.00738521255626</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.53860532334245</v>
+        <v>15.57434496560311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.14669649021065</v>
+        <v>12.27149461713454</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.988552767426561</v>
+        <v>7.149962982391579</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4926356408004735</v>
+        <v>0.4822239359232675</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3419739890664171</v>
+        <v>0.3432780783287813</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2632531966094609</v>
+        <v>0.2696272325901941</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2006597182866408</v>
+        <v>0.2049548888931808</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.645730662258032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.379433968063438</v>
+        <v>2.379433968063443</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3238708586728096</v>
@@ -849,7 +849,7 @@
         <v>0.1882967084746954</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0727920857598961</v>
+        <v>0.07279208575989628</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.086552430042699</v>
+        <v>6.287370891976122</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3450216094559679</v>
+        <v>-0.492669845048872</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.231376908660674</v>
+        <v>0.9602868635312907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.709039996601391</v>
+        <v>-2.321735124022053</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1410985971172313</v>
+        <v>0.1446897033278096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01274494215774479</v>
+        <v>-0.006927591539597847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0272100945723578</v>
+        <v>0.02150557037796656</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07379971199705265</v>
+        <v>-0.0632356408270752</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.99395920902921</v>
+        <v>18.96604461295081</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.60662636735946</v>
+        <v>13.27739514671019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.51957877236614</v>
+        <v>13.81089001184496</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.949603096975275</v>
+        <v>7.544009538817339</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5097614190924925</v>
+        <v>0.5178978816180914</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3070863907521949</v>
+        <v>0.3025010623438666</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3812353070483728</v>
+        <v>0.3715598057406286</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.235748960143958</v>
+        <v>0.2602469643364167</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>11.48791776166317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.635224768549747</v>
+        <v>6.635224768549753</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3257058095555859</v>
@@ -949,7 +949,7 @@
         <v>0.2196703207994644</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1673557718988709</v>
+        <v>0.167355771898871</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>13.16139460562206</v>
+        <v>13.09675356709065</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.32923979271603</v>
+        <v>11.24312738613271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.00994491942037</v>
+        <v>9.177149498483217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.470497843412521</v>
+        <v>4.280125548274308</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2666472428326803</v>
+        <v>0.2663817673726508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1987334034356285</v>
+        <v>0.1980336820307818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1685236398472761</v>
+        <v>0.1723451538669919</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1102186075006638</v>
+        <v>0.1060907018806907</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.88869789836028</v>
+        <v>17.92544788151794</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.93907709375604</v>
+        <v>15.82609688593407</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.95054853104815</v>
+        <v>13.82760690170745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.892849908498848</v>
+        <v>8.867147099639721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3831249424973286</v>
+        <v>0.383100304724415</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2943230459590772</v>
+        <v>0.2919552830048318</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2746167291942757</v>
+        <v>0.2705051204276515</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2330384638327056</v>
+        <v>0.2357540521825299</v>
       </c>
     </row>
     <row r="16">
